--- a/matlab/experiment/27Aug/30deg/sim60deg3.xlsx
+++ b/matlab/experiment/27Aug/30deg/sim60deg3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\27Aug\60deg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\27Aug\30deg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABCCEA5-6EE0-468E-A2F5-EADD38ECA795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96748E37-C3FE-40EE-B62A-2D0EB05E7F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{846306DE-1E49-45BC-9824-CCBB41184193}"/>
+    <workbookView xWindow="2688" yWindow="1344" windowWidth="19812" windowHeight="11616" firstSheet="2" activeTab="6" xr2:uid="{846306DE-1E49-45BC-9824-CCBB41184193}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,50 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Spacing </t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90,6 +134,5390 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Spacing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacing!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacing!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.94961854321846018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94961854321846018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94961854321846018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94961854321846018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94961854321846018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94961854321846018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94961854321846018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94961854321846018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94961854321846018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94961854321846018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94961854321846018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9E1-4148-9EE2-8B484EEE7FAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacing!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacing!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.31840444152972625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31840444152972625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31840444152972625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31840444152972625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31840444152972625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31840444152972625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31840444152972625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31840444152972625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31840444152972625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31840444152972625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31840444152972625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9E1-4148-9EE2-8B484EEE7FAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacing!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacing!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.28792274104559423</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28792274104559423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28792274104559423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28792274104559423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28792274104559423</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28792274104559423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28792274104559423</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28792274104559423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28792274104559423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28792274104559423</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28792274104559423</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.38200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9E1-4148-9EE2-8B484EEE7FAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2108353968"/>
+        <c:axId val="2108356464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2108353968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108356464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108356464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108353968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Phase</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44004855643044627"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9CF-4ADA-AA85-3B1AE2A9D06E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>219.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>219.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>219.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>219.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>219.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>214.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>214.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>211.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>211.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>211.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>212.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>212.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>212.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>212.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>212.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>212.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>212.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>212.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>212.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>212.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>212.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>212.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>212.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>212.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>212.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>212.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9CF-4ADA-AA85-3B1AE2A9D06E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>143.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>143.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>143.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>143.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>143.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>138.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>138.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>134.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>134.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>134.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>135.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>135.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>135.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>135.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>135.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>135.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>135.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>135.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>135.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>135.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>136.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>136.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>136.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>136.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>136.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>136.19999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9CF-4ADA-AA85-3B1AE2A9D06E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>77.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A9CF-4ADA-AA85-3B1AE2A9D06E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A9CF-4ADA-AA85-3B1AE2A9D06E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>247.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>247.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>247.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>247.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>247.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>248.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>248.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>249.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>249.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>249.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>248.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>248.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>248.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>248.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>248.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>248.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A9CF-4ADA-AA85-3B1AE2A9D06E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="667881984"/>
+        <c:axId val="667882400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="667881984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="667882400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="667882400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="667881984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Amplitude</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6578250131018128E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6578250131018128E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6578250131018128E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6578250131018128E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11C7-4D3E-BD54-D5AB347DAC4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77903395755499816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77903395755499816</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.89700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-11C7-4D3E-BD54-D5AB347DAC4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.86520660709538233</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-11C7-4D3E-BD54-D5AB347DAC4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.87744085356251156</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.87744085356251156</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-11C7-4D3E-BD54-D5AB347DAC4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-11C7-4D3E-BD54-D5AB347DAC4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-11C7-4D3E-BD54-D5AB347DAC4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="396223184"/>
+        <c:axId val="396223600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="396223184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396223600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="396223600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396223184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -100,10 +5528,10 @@
       <xdr:rowOff>56134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>319144</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>150876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -127,7 +5555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="68579" y="56134"/>
-          <a:ext cx="5736965" cy="3250946"/>
+          <a:ext cx="6621781" cy="3752342"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -138,16 +5566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>320041</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>45719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>91441</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>26785</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -170,14 +5598,128 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5806441" y="0"/>
-          <a:ext cx="3429000" cy="3318625"/>
+          <a:off x="6789420" y="45719"/>
+          <a:ext cx="3893820" cy="3768483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29161CFA-0047-441B-B9DC-1C9C45046290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C560B7-53F3-4B15-973A-35E75560105A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F809CE2-C481-4CEC-B9E3-E3F2FC31ED04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -480,14 +6022,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A183D49-B430-4372-B1B6-617D77546A34}">
-  <dimension ref="A1"/>
+  <dimension ref="B23:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D23">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.376</v>
+      </c>
+      <c r="F23">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>49.2</v>
+      </c>
+      <c r="D24">
+        <v>212.4</v>
+      </c>
+      <c r="E24">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="F24">
+        <v>77.5</v>
+      </c>
+      <c r="G24">
+        <v>37</v>
+      </c>
+      <c r="H24">
+        <v>248.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="D25">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="F25">
+        <v>0.873</v>
+      </c>
+      <c r="G25">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>-3.7116442731485781</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -495,29 +6112,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AED873D-BF44-4A09-9E04-86226C5292B4}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:E50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0.94961854321846018</v>
-      </c>
-      <c r="B1">
-        <v>0.31840444152972625</v>
-      </c>
-      <c r="C1">
-        <v>0.28792274104559423</v>
-      </c>
-      <c r="D1">
-        <v>0.31840444152972625</v>
-      </c>
-      <c r="E1">
-        <v>0.94961854321846018</v>
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -692,19 +6303,19 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.41899999999999998</v>
+        <v>0.94961854321846018</v>
       </c>
       <c r="B12">
-        <v>0.48799999999999999</v>
+        <v>0.31840444152972625</v>
       </c>
       <c r="C12">
-        <v>0.50900000000000001</v>
+        <v>0.28792274104559423</v>
       </c>
       <c r="D12">
-        <v>0.48799999999999999</v>
+        <v>0.31840444152972625</v>
       </c>
       <c r="E12">
-        <v>0.41899999999999998</v>
+        <v>0.94961854321846018</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -760,36 +6371,36 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.57599999999999996</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="B16">
-        <v>0.54500000000000004</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="C16">
-        <v>0.52200000000000002</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D16">
-        <v>0.54500000000000004</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="E16">
-        <v>0.57599999999999996</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.621</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="B17">
-        <v>0.52800000000000002</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="C17">
-        <v>0.48899999999999999</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D17">
-        <v>0.52800000000000002</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="E17">
-        <v>0.621</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -811,19 +6422,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.51800000000000002</v>
+        <v>0.621</v>
       </c>
       <c r="B19">
-        <v>0.56100000000000005</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C19">
-        <v>0.55200000000000005</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D19">
-        <v>0.56100000000000005</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="E19">
-        <v>0.51800000000000002</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -913,19 +6524,19 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.95</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="B25">
-        <v>0.318</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="C25">
-        <v>0.433</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="D25">
-        <v>0.318</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="E25">
-        <v>0.95</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1001,13 +6612,13 @@
         <v>0.95</v>
       </c>
       <c r="B30">
-        <v>0.32100000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="C30">
-        <v>0.38200000000000001</v>
+        <v>0.433</v>
       </c>
       <c r="D30">
-        <v>0.32100000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="E30">
         <v>0.95</v>
@@ -1035,13 +6646,13 @@
         <v>0.95</v>
       </c>
       <c r="B32">
-        <v>0.31900000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="C32">
-        <v>0.39100000000000001</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D32">
-        <v>0.31900000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="E32">
         <v>0.95</v>
@@ -1089,7 +6700,7 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="C35">
-        <v>0.378</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D35">
         <v>0.31900000000000001</v>
@@ -1222,13 +6833,13 @@
         <v>0.95</v>
       </c>
       <c r="B43">
-        <v>0.32</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="C43">
         <v>0.378</v>
       </c>
       <c r="D43">
-        <v>0.32</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="E43">
         <v>0.95</v>
@@ -1270,19 +6881,19 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.95099999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="B46">
-        <v>0.32100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="C46">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="D46">
-        <v>0.32100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E46">
-        <v>0.95099999999999996</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1338,18 +6949,35 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.95199999999999996</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="B50">
-        <v>0.31900000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="C50">
         <v>0.376</v>
       </c>
       <c r="D50">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E50">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="B51">
         <v>0.31900000000000001</v>
       </c>
-      <c r="E50">
+      <c r="C51">
+        <v>0.376</v>
+      </c>
+      <c r="D51">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="E51">
         <v>0.95199999999999996</v>
       </c>
     </row>
@@ -1360,32 +6988,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC56048-DFB4-4F75-A4B3-FC644C9E6D7B}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F50"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>46</v>
-      </c>
-      <c r="B1">
-        <v>198</v>
-      </c>
-      <c r="C1">
-        <v>113</v>
-      </c>
-      <c r="D1">
-        <v>58</v>
-      </c>
-      <c r="E1">
-        <v>25</v>
-      </c>
-      <c r="F1">
-        <v>259</v>
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1590,22 +7218,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C12">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="D12">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E12">
-        <v>338</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1693,7 +7321,7 @@
         <v>59</v>
       </c>
       <c r="B17">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="C17">
         <v>166</v>
@@ -1733,7 +7361,7 @@
         <v>59</v>
       </c>
       <c r="B19">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="C19">
         <v>166</v>
@@ -1850,22 +7478,22 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>44.9</v>
+        <v>59</v>
       </c>
       <c r="B25">
-        <v>219.5</v>
+        <v>266</v>
       </c>
       <c r="C25">
-        <v>143.1</v>
+        <v>166</v>
       </c>
       <c r="D25">
-        <v>76.8</v>
+        <v>53</v>
       </c>
       <c r="E25">
-        <v>38.5</v>
+        <v>338</v>
       </c>
       <c r="F25">
-        <v>247.8</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1950,22 +7578,22 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>47</v>
+        <v>44.9</v>
       </c>
       <c r="B30">
-        <v>214.9</v>
+        <v>219.5</v>
       </c>
       <c r="C30">
-        <v>138.9</v>
+        <v>143.1</v>
       </c>
       <c r="D30">
-        <v>75.400000000000006</v>
+        <v>76.8</v>
       </c>
       <c r="E30">
-        <v>37.4</v>
+        <v>38.5</v>
       </c>
       <c r="F30">
-        <v>248.1</v>
+        <v>247.8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1990,22 +7618,22 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>48.3</v>
+        <v>47</v>
       </c>
       <c r="B32">
-        <v>211.4</v>
+        <v>214.9</v>
       </c>
       <c r="C32">
-        <v>134.5</v>
+        <v>138.9</v>
       </c>
       <c r="D32">
-        <v>76.3</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="E32">
-        <v>36</v>
+        <v>37.4</v>
       </c>
       <c r="F32">
-        <v>249.6</v>
+        <v>248.1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2050,22 +7678,22 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>49.4</v>
+        <v>48.3</v>
       </c>
       <c r="B35">
-        <v>212.2</v>
+        <v>211.4</v>
       </c>
       <c r="C35">
-        <v>135.69999999999999</v>
+        <v>134.5</v>
       </c>
       <c r="D35">
-        <v>77.599999999999994</v>
+        <v>76.3</v>
       </c>
       <c r="E35">
-        <v>37.1</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>248.4</v>
+        <v>249.6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2250,22 +7878,22 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="B45">
-        <v>212.4</v>
+        <v>212.2</v>
       </c>
       <c r="C45">
-        <v>136.19999999999999</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="D45">
-        <v>77.5</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="E45">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="F45">
-        <v>248.5</v>
+        <v>248.4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2365,6 +7993,26 @@
         <v>37</v>
       </c>
       <c r="F50">
+        <v>248.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49.2</v>
+      </c>
+      <c r="B51">
+        <v>212.4</v>
+      </c>
+      <c r="C51">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="D51">
+        <v>77.5</v>
+      </c>
+      <c r="E51">
+        <v>37</v>
+      </c>
+      <c r="F51">
         <v>248.5</v>
       </c>
     </row>
@@ -2375,32 +8023,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB3E035-8802-49B4-B9C1-C8AB4AC37A9D}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2534,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2548,13 +8196,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.77903395755499816</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.70699999999999996</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2588,13 +8236,13 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>0.95799999999999996</v>
+        <v>0.77903395755499816</v>
       </c>
       <c r="C11">
-        <v>0.95199999999999996</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="D11">
-        <v>0.95799999999999996</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2605,16 +8253,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>4.6578250131018128E-2</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2685,16 +8333,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.872</v>
+        <v>4.6578250131018128E-2</v>
       </c>
       <c r="B16">
-        <v>0.94499999999999995</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.755</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0.98799999999999999</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2705,19 +8353,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.93600000000000005</v>
+        <v>0.872</v>
       </c>
       <c r="B17">
-        <v>0.96399999999999997</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="C17">
-        <v>0.85299999999999998</v>
+        <v>0.755</v>
       </c>
       <c r="D17">
-        <v>0.96799999999999997</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="E17">
-        <v>0.97699999999999998</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2745,19 +8393,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.89900000000000002</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="B19">
-        <v>0.95399999999999996</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="C19">
-        <v>0.85499999999999998</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D19">
-        <v>0.98399999999999999</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="E19">
-        <v>0.91600000000000004</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2825,19 +8473,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.86099999999999999</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="B23">
-        <v>0.94399999999999995</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="C23">
-        <v>0.89800000000000002</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D23">
-        <v>0.94499999999999995</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="E23">
-        <v>0.86799999999999999</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2865,19 +8513,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.84699999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="B25">
-        <v>0.93899999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="C25">
-        <v>0.95</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D25">
-        <v>0.88600000000000001</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="E25">
-        <v>0.92500000000000004</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2965,19 +8613,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.84799999999999998</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="B30">
-        <v>0.85899999999999999</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="C30">
-        <v>0.93799999999999994</v>
+        <v>0.95</v>
       </c>
       <c r="D30">
-        <v>0.87744085356251156</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="E30">
-        <v>0.92300000000000004</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3005,19 +8653,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.83499999999999996</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="B32">
-        <v>0.92600000000000005</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="C32">
-        <v>0.93</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="D32">
-        <v>0.90700000000000003</v>
+        <v>0.87744085356251156</v>
       </c>
       <c r="E32">
-        <v>0.93700000000000006</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3065,19 +8713,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.82499999999999996</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="B35">
-        <v>0.88700000000000001</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="C35">
-        <v>0.86520660709538233</v>
+        <v>0.93</v>
       </c>
       <c r="D35">
-        <v>0.92200000000000004</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="E35">
-        <v>0.93400000000000005</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3351,7 +8999,7 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="C49">
-        <v>0.86499999999999999</v>
+        <v>0.86520660709538233</v>
       </c>
       <c r="D49">
         <v>0.92200000000000004</v>
@@ -3365,21 +9013,41 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="B50">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D50">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="E50">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>0.83199999999999996</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>0.89700000000000002</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>0.90100000000000002</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>0.873</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>0.93700000000000006</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>1</v>
       </c>
     </row>
@@ -3922,7 +9590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC41831-BDC6-4B6C-B317-430D1A414761}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
